--- a/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
   <si>
     <t>Quantity</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>battery terminals</t>
+  </si>
+  <si>
+    <t>nylon spacers M2 x 12mm + M2x5 screws for OLED display</t>
+  </si>
+  <si>
+    <t>(with Optonal Parts)</t>
+  </si>
+  <si>
+    <t>(without OPTIONAL Parts)</t>
+  </si>
+  <si>
+    <t>Ebay or Aliexpress</t>
   </si>
 </sst>
 </file>
@@ -734,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,6 +919,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1212,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,50 +2030,60 @@
     </row>
     <row r="45" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
+        <v>3</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="23">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8">
         <v>5.95</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="25">
-        <v>1</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="27">
-        <v>2.95</v>
       </c>
       <c r="I46" s="66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
+    <row r="47" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="25">
+        <v>1</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="27">
+        <v>2.95</v>
+      </c>
+      <c r="I47" s="69" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
@@ -2066,27 +2094,47 @@
       <c r="H48" s="42"/>
       <c r="I48" s="43"/>
     </row>
-    <row r="49" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="31" t="s">
+    <row r="49" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+    </row>
+    <row r="50" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="32">
-        <f>SUM(H33:H48)</f>
-        <v>35.380000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F51" s="3" t="s">
+      <c r="H50" s="32">
+        <f>SUM(H33:H49)</f>
+        <v>38.380000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="32">
-        <f>SUM(H30,H49)</f>
-        <v>82.539700000000011</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="6:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H52" s="32">
+        <f>SUM(H30,H50)</f>
+        <v>85.539700000000011</v>
+      </c>
+      <c r="I52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="32">
+        <f>SUM(H52-(SUM(H45:H47)))</f>
+        <v>73.639700000000005</v>
+      </c>
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
@@ -337,9 +337,6 @@
     <t>300A Fuse</t>
   </si>
   <si>
-    <t>5.0SMDJ13A</t>
-  </si>
-  <si>
     <t>C1, C3, C4, C6</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>Ebay or Aliexpress</t>
+  </si>
+  <si>
+    <t>78-SMC5K13AHM3H</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,7 +918,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1232,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="47">
@@ -1563,14 +1562,15 @@
       <c r="E19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>107</v>
+      <c r="F19" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="G19" s="10">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="H19" s="47">
-        <v>5.84</v>
+        <f>C19*G19</f>
+        <v>6.48</v>
       </c>
       <c r="I19" s="45"/>
     </row>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>68</v>
@@ -1617,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>73</v>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="H29" s="30">
         <f>SUM(H5:H28)</f>
-        <v>39.63000000000001</v>
+        <v>40.27000000000001</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="H30" s="41">
         <f>H29*1.19</f>
-        <v>47.159700000000008</v>
+        <v>47.921300000000009</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>98</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>10</v>
@@ -2006,7 +2006,7 @@
         <v>2.95</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,8 +2033,8 @@
         <v>2</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="68" t="s">
-        <v>116</v>
+      <c r="E45" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>105</v>
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
       <c r="H47" s="27">
         <v>2.95</v>
       </c>
-      <c r="I47" s="69" t="s">
+      <c r="I47" s="68" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2119,19 +2119,19 @@
       </c>
       <c r="H52" s="32">
         <f>SUM(H30,H50)</f>
-        <v>85.539700000000011</v>
+        <v>86.301300000000012</v>
       </c>
       <c r="I52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H53" s="32">
         <f>SUM(H52-(SUM(H45:H47)))</f>
-        <v>73.639700000000005</v>
+        <v>74.40130000000002</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2163,8 +2163,8 @@
     <hyperlink ref="I33" r:id="rId24"/>
     <hyperlink ref="I34" r:id="rId25"/>
     <hyperlink ref="F24" r:id="rId26" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT"/>
-    <hyperlink ref="F19" r:id="rId27"/>
-    <hyperlink ref="F14" r:id="rId28"/>
+    <hyperlink ref="F14" r:id="rId27"/>
+    <hyperlink ref="F19" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
@@ -1232,7 +1232,7 @@
   <dimension ref="B2:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
@@ -88,9 +88,6 @@
     <t>TOTAL COST</t>
   </si>
   <si>
-    <t>Mosfet IRFB 7437 40V 250A</t>
-  </si>
-  <si>
     <t>Resistor 1206 SMD  620 Ohm</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>78-SMC5K13AHM3H</t>
+  </si>
+  <si>
+    <t>Mosfet IRFB 7430 40V 409A</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1248,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>2</v>
@@ -1281,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="13">
         <v>2.76</v>
@@ -1303,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="47">
@@ -1323,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="47">
@@ -1345,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9">
         <v>1.06</v>
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="10">
         <v>0.66300000000000003</v>
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9">
         <v>0.221</v>
@@ -1405,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="61">
@@ -1424,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="47">
@@ -1443,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="47">
@@ -1462,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="47">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="47">
@@ -1500,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="47">
@@ -1519,13 +1519,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="47">
@@ -1538,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="58" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>65</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="47">
@@ -1557,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="10">
         <v>1.62</v>
@@ -1579,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="58" t="s">
         <v>68</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>69</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="47">
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="47">
@@ -1614,16 +1614,16 @@
     </row>
     <row r="22" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="60">
         <v>0.17</v>
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="58" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>76</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="61">
@@ -1657,13 +1657,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
@@ -1676,13 +1676,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="9">
         <v>0.02</v>
@@ -1697,13 +1697,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="58" t="s">
         <v>80</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>81</v>
       </c>
       <c r="G26" s="10">
         <v>0.02</v>
@@ -1718,13 +1718,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="58" t="s">
         <v>83</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>84</v>
       </c>
       <c r="G27" s="10">
         <v>0.02</v>
@@ -1739,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="62" t="s">
         <v>86</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>87</v>
       </c>
       <c r="G28" s="63">
         <v>0.02</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="30" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="41">
         <f>H29*1.19</f>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>2</v>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>2.15</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="52"/>
@@ -1833,7 +1833,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10">
@@ -1880,10 +1880,10 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10">
@@ -1899,10 +1899,10 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10">
@@ -1918,10 +1918,10 @@
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11">
@@ -1959,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -1977,10 +1977,10 @@
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>10</v>
@@ -2006,7 +2006,7 @@
         <v>2.95</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,10 +2015,10 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
         <v>3</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,10 +2053,10 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8">
@@ -2072,10 +2072,10 @@
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="27">
@@ -2122,7 +2122,7 @@
         <v>86.301300000000012</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>74.40130000000002</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V3.2.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C3DE332B3AA280A206F5AC79C4733707CD574E8D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3C105289-9EF4-4089-B69C-E71049BFB72A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
   <si>
     <t>Quantity</t>
   </si>
@@ -280,15 +289,9 @@
     <t xml:space="preserve">1m 16 mm² flexible cable </t>
   </si>
   <si>
-    <t>OLED Diplay 128x64</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.banggood.com/ATmega328P-Nano-V3-Controller-Board-Compatible-Arduino-p-940937.html?p=KM22060681092012071U </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.banggood.com/0_96-Inch-4Pin-White-IIC-I2C-OLED-Display-Module-12864-LED-For-Arduino-p-958196.html?p=KM22060681092012071U </t>
-  </si>
-  <si>
     <t xml:space="preserve">local hardware Store or  https://malectrics.eu/ </t>
   </si>
   <si>
@@ -374,12 +377,21 @@
   </si>
   <si>
     <t>Mosfet IRFB 7430 40V 409A</t>
+  </si>
+  <si>
+    <t>OLED Diplay 0,96" 128x64</t>
+  </si>
+  <si>
+    <t>take care of correct pinout (GND - VCC - SCL - SDA)</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/0_96-Inch-12864-OLED-Module-4-Pin-IC-I2C-IIC-Communication-p-1219948.html?rmmds=search&amp;cur_warehouse=CN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -746,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +935,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,7 +964,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1018,6 +1039,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1053,6 +1091,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1228,11 +1283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1295,7 @@
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="85.5703125" customWidth="1"/>
@@ -1284,7 +1339,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>32</v>
@@ -1462,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="47">
@@ -1563,7 +1618,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="10">
         <v>1.62</v>
@@ -1579,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>67</v>
@@ -1617,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>72</v>
@@ -1660,10 +1715,10 @@
         <v>76</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
@@ -1816,24 +1871,26 @@
         <v>2.15</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="49">
-        <v>1</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="51"/>
+      <c r="C34" s="69">
+        <v>1</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>119</v>
+      </c>
       <c r="G34" s="52"/>
       <c r="H34" s="53">
         <v>4.7300000000000004</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,10 +1918,10 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10">
@@ -1880,10 +1937,10 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10">
@@ -1899,10 +1956,10 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10">
@@ -1921,7 +1978,7 @@
         <v>87</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11">
@@ -1959,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -1977,10 +2034,10 @@
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10">
@@ -1996,7 +2053,7 @@
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>10</v>
@@ -2006,7 +2063,7 @@
         <v>2.95</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,10 +2072,10 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
@@ -2034,17 +2091,17 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
         <v>3</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,10 +2110,10 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8">
@@ -2072,10 +2129,10 @@
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="27">
@@ -2122,7 +2179,7 @@
         <v>86.301300000000012</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,40 +2188,40 @@
         <v>74.40130000000002</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="F35" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3" display="http://www.mouser.de/Search/ProductDetail.aspx?R=IRFB7430PBFvirtualkey57370000virtualkey942-IRFB7430PBF"/>
-    <hyperlink ref="F6" r:id="rId4" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MCP1407-E%2fPvirtualkey57940000virtualkey579-MCP1407-E%2fP"/>
-    <hyperlink ref="F7" r:id="rId5" display="http://www.mouser.de/Search/ProductDetail.aspx?R=PEC11L-4220F-S0015virtualkey65210000virtualkey652-PEC11L4220FS0015"/>
-    <hyperlink ref="F8" r:id="rId6" display="http://www.mouser.de/Search/ProductDetail.aspx?R=15Fx1-254mmvirtualkey58150000virtualkey992-15FX1-254MM"/>
-    <hyperlink ref="F9" r:id="rId7" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-008-10-001101virtualkey54370000virtualkey437-8018700810001101"/>
-    <hyperlink ref="F10" r:id="rId8" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-002-10-001101virtualkey54370000virtualkey437-8018700210001101"/>
-    <hyperlink ref="F11" r:id="rId9" display="http://www.mouser.de/Search/ProductDetail.aspx?R=929974-01-04-RKvirtualkey51750000virtualkey517-974-01-04-RK"/>
-    <hyperlink ref="F12" r:id="rId10" display="http://www.mouser.de/Search/ProductDetail.aspx?R=22-28-4160virtualkey53810000virtualkey538-22-28-4160"/>
-    <hyperlink ref="F13" r:id="rId11" display="http://www.mouser.de/Search/ProductDetail.aspx?R=61900211121virtualkey51110000virtualkey710-61900211121"/>
-    <hyperlink ref="F15" r:id="rId12" display="http://www.mouser.de/Search/ProductDetail.aspx?R=1-2199298-2virtualkey57100000virtualkey571-1-2199298-2"/>
-    <hyperlink ref="F16" r:id="rId13" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G"/>
-    <hyperlink ref="F17" r:id="rId14" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08"/>
-    <hyperlink ref="F18" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=BAV99LT1Gvirtualkey58410000virtualkey863-BAV99LT1G"/>
-    <hyperlink ref="F20" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F"/>
-    <hyperlink ref="F21" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD"/>
-    <hyperlink ref="F22" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=12103D103MAT2Avirtualkey58110000virtualkey581-12103D103MAT2A"/>
-    <hyperlink ref="F23" r:id="rId19" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S"/>
-    <hyperlink ref="F25" r:id="rId20" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0730RLvirtualkey60120000virtualkey603-RC1206FR-0730RL"/>
-    <hyperlink ref="F26" r:id="rId21" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-07620RLvirtualkey60120000virtualkey603-RC1206FR-07620RL"/>
-    <hyperlink ref="F27" r:id="rId22" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-073K3Lvirtualkey60120000virtualkey603-RC1206FR-073K3L"/>
-    <hyperlink ref="F28" r:id="rId23" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0710KLvirtualkey60120000virtualkey603-RC1206FR-0710KL"/>
-    <hyperlink ref="I33" r:id="rId24"/>
-    <hyperlink ref="I34" r:id="rId25"/>
-    <hyperlink ref="F24" r:id="rId26" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT"/>
-    <hyperlink ref="F14" r:id="rId27"/>
-    <hyperlink ref="F19" r:id="rId28"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" display="http://www.mouser.de/Search/ProductDetail.aspx?R=IRFB7430PBFvirtualkey57370000virtualkey942-IRFB7430PBF" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MCP1407-E%2fPvirtualkey57940000virtualkey579-MCP1407-E%2fP" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" display="http://www.mouser.de/Search/ProductDetail.aspx?R=PEC11L-4220F-S0015virtualkey65210000virtualkey652-PEC11L4220FS0015" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId6" display="http://www.mouser.de/Search/ProductDetail.aspx?R=15Fx1-254mmvirtualkey58150000virtualkey992-15FX1-254MM" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F9" r:id="rId7" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-008-10-001101virtualkey54370000virtualkey437-8018700810001101" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F10" r:id="rId8" display="http://www.mouser.de/Search/ProductDetail.aspx?R=801-87-002-10-001101virtualkey54370000virtualkey437-8018700210001101" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F11" r:id="rId9" display="http://www.mouser.de/Search/ProductDetail.aspx?R=929974-01-04-RKvirtualkey51750000virtualkey517-974-01-04-RK" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" display="http://www.mouser.de/Search/ProductDetail.aspx?R=22-28-4160virtualkey53810000virtualkey538-22-28-4160" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" display="http://www.mouser.de/Search/ProductDetail.aspx?R=61900211121virtualkey51110000virtualkey710-61900211121" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F15" r:id="rId12" display="http://www.mouser.de/Search/ProductDetail.aspx?R=1-2199298-2virtualkey57100000virtualkey571-1-2199298-2" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F16" r:id="rId13" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F17" r:id="rId14" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F18" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=BAV99LT1Gvirtualkey58410000virtualkey863-BAV99LT1G" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F20" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F21" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F22" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=12103D103MAT2Avirtualkey58110000virtualkey581-12103D103MAT2A" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F25" r:id="rId20" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0730RLvirtualkey60120000virtualkey603-RC1206FR-0730RL" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F26" r:id="rId21" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-07620RLvirtualkey60120000virtualkey603-RC1206FR-07620RL" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F27" r:id="rId22" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-073K3Lvirtualkey60120000virtualkey603-RC1206FR-073K3L" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F28" r:id="rId23" display="http://www.mouser.de/Search/ProductDetail.aspx?R=RC1206FR-0710KLvirtualkey60120000virtualkey603-RC1206FR-0710KL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F24" r:id="rId25" display="https://www.mouser.de/Search/ProductDetail.aspx?R=3521150RFTvirtualkey50680000virtualkey279-3521150RFT" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I34" r:id="rId28" xr:uid="{D94E971B-E565-49AF-889E-3B9D5D976EFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
